--- a/Huzaifa-annotations/RAIL_Q4_2013.xlsx
+++ b/Huzaifa-annotations/RAIL_Q4_2013.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/Huzaifa-annotations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4616597F-C611-4742-93C8-5D48797F024E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -289,8 +295,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +359,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,7 +413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,9 +445,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,6 +497,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,14 +690,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -696,13 +748,13 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -711,7 +763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -728,10 +780,10 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -743,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -760,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -775,7 +827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -795,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -807,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -824,13 +876,13 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -839,7 +891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -853,16 +905,16 @@
         <v>57</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -871,7 +923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -891,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -903,7 +955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -917,25 +969,25 @@
         <v>59</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -955,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -967,7 +1019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -987,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -999,7 +1051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1019,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -1031,7 +1083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1051,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1063,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1083,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1095,7 +1147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1115,10 +1167,10 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1127,7 +1179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1147,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1159,7 +1211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1179,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1191,7 +1243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1223,7 +1275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1243,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1255,7 +1307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1272,13 +1324,13 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1287,7 +1339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1307,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1319,7 +1371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1339,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1351,7 +1403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1371,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -1383,7 +1435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1403,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1415,7 +1467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1435,10 +1487,10 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1447,7 +1499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1467,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -1479,7 +1531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1499,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1511,7 +1563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1531,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1543,7 +1595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1557,25 +1609,25 @@
         <v>79</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1595,10 +1647,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -1607,7 +1659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1627,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -1639,7 +1691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1659,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -1671,7 +1723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1691,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1703,7 +1755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1720,13 +1772,13 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1735,7 +1787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1755,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -1767,7 +1819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1784,13 +1836,13 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -1799,7 +1851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1819,19 +1871,19 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1851,10 +1903,10 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -1863,7 +1915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1886,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>2</v>
